--- a/kordinat_polygon.xlsx
+++ b/kordinat_polygon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bisma\OneDrive\Documents\KULIAH\semester3\PDSD\PDS-SCRAPING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE14B4F6-76C9-4098-8F26-3E72E71CF487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3FE63D-A3A8-415E-9A6C-9A6F64DEB3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6505CEB-97ED-4893-80D9-1D4A7E09C759}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="31">
   <si>
     <t>Latitude</t>
   </si>
@@ -134,7 +134,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -193,20 +193,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE5C723-F74E-4210-8766-D25B131C270B}">
-  <dimension ref="A1:C370"/>
+  <dimension ref="A1:C364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="G370" sqref="G370"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,10 +549,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>-6.3516537072874799</v>
+        <v>-6.3356158059287804</v>
       </c>
       <c r="C2" s="2">
-        <v>106.797415268942</v>
+        <v>106.80781854963401</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -638,10 +637,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>-6.2072671909521402</v>
+        <v>-6.2155988714440698</v>
       </c>
       <c r="C10" s="2">
-        <v>106.82642837313</v>
+        <v>106.826387353228</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -649,10 +648,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>-6.2134704734769404</v>
+        <v>-6.2170353282076096</v>
       </c>
       <c r="C11" s="2">
-        <v>106.791413018543</v>
+        <v>106.821674825057</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -660,10 +659,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>-6.2286626457627499</v>
+        <v>-6.2180829819699399</v>
       </c>
       <c r="C12" s="2">
-        <v>106.75793180944299</v>
+        <v>106.79438837351</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -671,32 +670,32 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>-6.2367005967739404</v>
+        <v>-6.2134704734769404</v>
       </c>
       <c r="C13" s="2">
-        <v>106.749729457157</v>
+        <v>106.791413018543</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>-7.2853405709488701</v>
+        <v>-6.2286626457627499</v>
       </c>
       <c r="C14" s="2">
-        <v>112.628738141504</v>
+        <v>106.75793180944299</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>-7.3114792243548203</v>
+        <v>-6.2367005967739404</v>
       </c>
       <c r="C15" s="2">
-        <v>112.65222122008601</v>
+        <v>106.749729457157</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -704,10 +703,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="2">
-        <v>-7.3209277133624697</v>
+        <v>-7.2853405709488701</v>
       </c>
       <c r="C16" s="2">
-        <v>112.70222808865999</v>
+        <v>112.628738141504</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -715,10 +714,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="2">
-        <v>-7.3281394430657096</v>
+        <v>-7.3114792243548203</v>
       </c>
       <c r="C17" s="2">
-        <v>112.715842326086</v>
+        <v>112.65222122008601</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -726,10 +725,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>-7.3454695658674396</v>
+        <v>-7.3209277133624697</v>
       </c>
       <c r="C18" s="2">
-        <v>112.735779615341</v>
+        <v>112.70222808865999</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -737,10 +736,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="2">
-        <v>-7.3350151059108599</v>
+        <v>-7.3281394430657096</v>
       </c>
       <c r="C19" s="2">
-        <v>112.78810938655501</v>
+        <v>112.715842326086</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -748,10 +747,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="2">
-        <v>-7.33234167807485</v>
+        <v>-7.3454695658674396</v>
       </c>
       <c r="C20" s="2">
-        <v>112.789311800001</v>
+        <v>112.735779615341</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -759,10 +758,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="2">
-        <v>-7.2938867092784498</v>
+        <v>-7.3350151059108599</v>
       </c>
       <c r="C21" s="2">
-        <v>112.80585621111101</v>
+        <v>112.78810938655501</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -770,10 +769,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="2">
-        <v>-7.2580924998247403</v>
+        <v>-7.33234167807485</v>
       </c>
       <c r="C22" s="2">
-        <v>112.7735886</v>
+        <v>112.789311800001</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -781,10 +780,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="2">
-        <v>-7.2518360030034197</v>
+        <v>-7.2938867092784498</v>
       </c>
       <c r="C23" s="2">
-        <v>112.743995340258</v>
+        <v>112.80585621111101</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -792,10 +791,10 @@
         <v>5</v>
       </c>
       <c r="B24" s="2">
-        <v>-7.2637464427967204</v>
+        <v>-7.2580924998247403</v>
       </c>
       <c r="C24" s="2">
-        <v>112.67592508416099</v>
+        <v>112.7735886</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -803,32 +802,32 @@
         <v>5</v>
       </c>
       <c r="B25" s="2">
-        <v>-7.2789462468397597</v>
+        <v>-7.2518360030034197</v>
       </c>
       <c r="C25" s="2">
-        <v>112.648197478855</v>
+        <v>112.743995340258</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="2">
-        <v>-6.9532086843809804</v>
+        <v>-7.2637464427967204</v>
       </c>
       <c r="C26" s="2">
-        <v>110.39493975927</v>
+        <v>112.67592508416099</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="2">
-        <v>-6.9996330765027404</v>
+        <v>-7.2789462468397597</v>
       </c>
       <c r="C27" s="2">
-        <v>110.353631843161</v>
+        <v>112.648197478855</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -836,10 +835,10 @@
         <v>6</v>
       </c>
       <c r="B28" s="2">
-        <v>-7.0130426135807902</v>
+        <v>-6.9532086843809804</v>
       </c>
       <c r="C28" s="2">
-        <v>110.371915701861</v>
+        <v>110.39493975927</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -847,10 +846,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="2">
-        <v>-7.0348607817736601</v>
+        <v>-6.9996330765027404</v>
       </c>
       <c r="C29" s="2">
-        <v>110.391464959559</v>
+        <v>110.353631843161</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -858,10 +857,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="2">
-        <v>-7.04659485067448</v>
+        <v>-7.0130426135807902</v>
       </c>
       <c r="C30" s="2">
-        <v>110.38927737325299</v>
+        <v>110.371915701861</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -869,10 +868,10 @@
         <v>6</v>
       </c>
       <c r="B31" s="2">
-        <v>-7.0593994293570104</v>
+        <v>-7.0348607817736601</v>
       </c>
       <c r="C31" s="2">
-        <v>110.38723045767</v>
+        <v>110.391464959559</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -880,10 +879,10 @@
         <v>6</v>
       </c>
       <c r="B32" s="2">
-        <v>-7.0592814675094901</v>
+        <v>-7.04659485067448</v>
       </c>
       <c r="C32" s="2">
-        <v>110.39880207029</v>
+        <v>110.38927737325299</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -891,10 +890,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="2">
-        <v>-7.0715192265893698</v>
+        <v>-7.0593994293570104</v>
       </c>
       <c r="C33" s="2">
-        <v>110.411337153067</v>
+        <v>110.38723045767</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -902,10 +901,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="2">
-        <v>-7.0701077296538699</v>
+        <v>-7.0592814675094901</v>
       </c>
       <c r="C34" s="2">
-        <v>110.443538242329</v>
+        <v>110.39880207029</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -913,10 +912,10 @@
         <v>6</v>
       </c>
       <c r="B35" s="2">
-        <v>-7.0680856877769003</v>
+        <v>-7.0715192265893698</v>
       </c>
       <c r="C35" s="2">
-        <v>110.44964529991</v>
+        <v>110.411337153067</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -924,10 +923,10 @@
         <v>6</v>
       </c>
       <c r="B36" s="2">
-        <v>-7.0358420509198298</v>
+        <v>-7.0701077296538699</v>
       </c>
       <c r="C36" s="2">
-        <v>110.463628569317</v>
+        <v>110.443538242329</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -935,10 +934,10 @@
         <v>6</v>
       </c>
       <c r="B37" s="2">
-        <v>-7.02926667709544</v>
+        <v>-7.0680856877769003</v>
       </c>
       <c r="C37" s="2">
-        <v>110.49625034707699</v>
+        <v>110.44964529991</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -946,10 +945,10 @@
         <v>6</v>
       </c>
       <c r="B38" s="2">
-        <v>-7.02721196373688</v>
+        <v>-7.0358420509198298</v>
       </c>
       <c r="C38" s="2">
-        <v>110.495359543294</v>
+        <v>110.463628569317</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -957,32 +956,32 @@
         <v>6</v>
       </c>
       <c r="B39" s="2">
-        <v>-6.9692229301479998</v>
+        <v>-7.02926667709544</v>
       </c>
       <c r="C39" s="2">
-        <v>110.47778520944399</v>
+        <v>110.49625034707699</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B40" s="2">
-        <v>-6.1497229221583796</v>
+        <v>-7.02721196373688</v>
       </c>
       <c r="C40" s="2">
-        <v>106.835929374168</v>
+        <v>110.495359543294</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B41" s="2">
-        <v>-6.1491470000000001</v>
+        <v>-6.9692229301479998</v>
       </c>
       <c r="C41" s="2">
-        <v>106.82949600000001</v>
+        <v>110.47778520944399</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -990,10 +989,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="2">
-        <v>-6.15974749512419</v>
+        <v>-6.1497229221583796</v>
       </c>
       <c r="C42" s="2">
-        <v>106.817103615919</v>
+        <v>106.835929374168</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1001,10 +1000,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="2">
-        <v>-6.1617776649396898</v>
+        <v>-6.1491470000000001</v>
       </c>
       <c r="C43" s="2">
-        <v>106.81501392698701</v>
+        <v>106.82949600000001</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1012,10 +1011,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="2">
-        <v>-6.16735733058887</v>
+        <v>-6.15974749512419</v>
       </c>
       <c r="C44" s="2">
-        <v>106.80601352657</v>
+        <v>106.817103615919</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1023,10 +1022,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="2">
-        <v>-6.1716065636513697</v>
+        <v>-6.1617776649396898</v>
       </c>
       <c r="C45" s="2">
-        <v>106.80523202447</v>
+        <v>106.81501392698701</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1034,10 +1033,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="2">
-        <v>-6.1749133013936799</v>
+        <v>-6.16735733058887</v>
       </c>
       <c r="C46" s="2">
-        <v>106.807489326655</v>
+        <v>106.80601352657</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1045,10 +1044,10 @@
         <v>8</v>
       </c>
       <c r="B47" s="2">
-        <v>-6.2068521044113503</v>
+        <v>-6.1716065636513697</v>
       </c>
       <c r="C47" s="2">
-        <v>106.804712157916</v>
+        <v>106.80523202447</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1056,10 +1055,10 @@
         <v>8</v>
       </c>
       <c r="B48" s="2">
-        <v>-6.2135446345146104</v>
+        <v>-6.1749133013936799</v>
       </c>
       <c r="C48" s="2">
-        <v>106.81097725276599</v>
+        <v>106.807489326655</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1067,10 +1066,10 @@
         <v>8</v>
       </c>
       <c r="B49" s="2">
-        <v>-6.21425531457243</v>
+        <v>-6.2068521044113503</v>
       </c>
       <c r="C49" s="2">
-        <v>106.81278527104</v>
+        <v>106.804712157916</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1078,10 +1077,10 @@
         <v>8</v>
       </c>
       <c r="B50" s="2">
-        <v>-6.2052673617428997</v>
+        <v>-6.2135446345146104</v>
       </c>
       <c r="C50" s="2">
-        <v>106.840582126136</v>
+        <v>106.81097725276599</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1089,10 +1088,10 @@
         <v>8</v>
       </c>
       <c r="B51" s="2">
-        <v>-6.2037003615189903</v>
+        <v>-6.21425531457243</v>
       </c>
       <c r="C51" s="2">
-        <v>106.854768136742</v>
+        <v>106.81278527104</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1100,10 +1099,10 @@
         <v>8</v>
       </c>
       <c r="B52" s="2">
-        <v>-6.18595428357869</v>
+        <v>-6.2052673617428997</v>
       </c>
       <c r="C52" s="2">
-        <v>106.873027307328</v>
+        <v>106.840582126136</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1111,10 +1110,10 @@
         <v>8</v>
       </c>
       <c r="B53" s="2">
-        <v>-6.1813194849990998</v>
+        <v>-6.2037003615189903</v>
       </c>
       <c r="C53" s="2">
-        <v>106.874097325045</v>
+        <v>106.854768136742</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1122,10 +1121,10 @@
         <v>8</v>
       </c>
       <c r="B54" s="2">
-        <v>-6.1733406004204197</v>
+        <v>-6.18595428357869</v>
       </c>
       <c r="C54" s="2">
-        <v>106.874913593613</v>
+        <v>106.873027307328</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1133,32 +1132,32 @@
         <v>8</v>
       </c>
       <c r="B55" s="2">
-        <v>-6.1569884610561996</v>
+        <v>-6.1813194849990998</v>
       </c>
       <c r="C55" s="2">
-        <v>106.866112788357</v>
+        <v>106.874097325045</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B56" s="2">
-        <v>-6.2599149177199198</v>
+        <v>-6.1733406004204197</v>
       </c>
       <c r="C56" s="2">
-        <v>106.70080562714</v>
+        <v>106.874913593613</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B57" s="2">
-        <v>-6.2488490304215096</v>
+        <v>-6.1569884610561996</v>
       </c>
       <c r="C57" s="2">
-        <v>106.64968004802</v>
+        <v>106.866112788357</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1166,10 +1165,10 @@
         <v>15</v>
       </c>
       <c r="B58" s="2">
-        <v>-6.3139335423841603</v>
+        <v>-6.2599149177199198</v>
       </c>
       <c r="C58" s="2">
-        <v>106.66407835766999</v>
+        <v>106.70080562714</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1177,10 +1176,10 @@
         <v>15</v>
       </c>
       <c r="B59" s="2">
-        <v>-6.3421349876328303</v>
+        <v>-6.2488490304215096</v>
       </c>
       <c r="C59" s="2">
-        <v>106.735958944263</v>
+        <v>106.64968004802</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1188,10 +1187,10 @@
         <v>15</v>
       </c>
       <c r="B60" s="2">
-        <v>-6.3476318491422798</v>
+        <v>-6.3139335423841603</v>
       </c>
       <c r="C60" s="2">
-        <v>106.75012425163099</v>
+        <v>106.66407835766999</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1199,10 +1198,10 @@
         <v>15</v>
       </c>
       <c r="B61" s="2">
-        <v>-6.3060422386957002</v>
+        <v>-6.3421349876328303</v>
       </c>
       <c r="C61" s="2">
-        <v>106.770779769954</v>
+        <v>106.735958944263</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1210,10 +1209,10 @@
         <v>15</v>
       </c>
       <c r="B62" s="2">
-        <v>-6.3004030093353398</v>
+        <v>-6.3476318491422798</v>
       </c>
       <c r="C62" s="2">
-        <v>106.76854006312701</v>
+        <v>106.75012425163099</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1221,32 +1220,32 @@
         <v>15</v>
       </c>
       <c r="B63" s="2">
-        <v>-6.2560223321479</v>
+        <v>-6.3060422386957002</v>
       </c>
       <c r="C63" s="2">
-        <v>106.73495977054399</v>
+        <v>106.770779769954</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B64" s="2">
-        <v>-6.1107070328373103</v>
+        <v>-6.3004030093353398</v>
       </c>
       <c r="C64" s="2">
-        <v>106.644018954944</v>
+        <v>106.76854006312701</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B65" s="2">
-        <v>-6.2372515083553903</v>
+        <v>-6.2560223321479</v>
       </c>
       <c r="C65" s="2">
-        <v>106.525251709564</v>
+        <v>106.73495977054399</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1254,10 +1253,10 @@
         <v>9</v>
       </c>
       <c r="B66" s="2">
-        <v>-6.2726072402325803</v>
+        <v>-6.1107070328373103</v>
       </c>
       <c r="C66" s="2">
-        <v>106.5223831</v>
+        <v>106.644018954944</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1265,10 +1264,10 @@
         <v>9</v>
       </c>
       <c r="B67" s="2">
-        <v>-6.2728403568353697</v>
+        <v>-6.2372515083553903</v>
       </c>
       <c r="C67" s="2">
-        <v>106.522377753588</v>
+        <v>106.525251709564</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1276,10 +1275,10 @@
         <v>9</v>
       </c>
       <c r="B68" s="2">
-        <v>-6.3263228326079197</v>
+        <v>-6.2726072402325803</v>
       </c>
       <c r="C68" s="2">
-        <v>106.625017771342</v>
+        <v>106.5223831</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1287,10 +1286,10 @@
         <v>9</v>
       </c>
       <c r="B69" s="2">
-        <v>-6.31902171219933</v>
+        <v>-6.2728403568353697</v>
       </c>
       <c r="C69" s="2">
-        <v>106.643484315948</v>
+        <v>106.522377753588</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1298,10 +1297,10 @@
         <v>9</v>
       </c>
       <c r="B70" s="2">
-        <v>-6.2927906052306604</v>
+        <v>-6.3263228326079197</v>
       </c>
       <c r="C70" s="2">
-        <v>106.643921600331</v>
+        <v>106.625017771342</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1309,10 +1308,10 @@
         <v>9</v>
       </c>
       <c r="B71" s="2">
-        <v>-6.2425213117425802</v>
+        <v>-6.31902171219933</v>
       </c>
       <c r="C71" s="2">
-        <v>106.63444903865501</v>
+        <v>106.643484315948</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1320,10 +1319,10 @@
         <v>9</v>
       </c>
       <c r="B72" s="2">
-        <v>-6.2367377732091196</v>
+        <v>-6.2927906052306604</v>
       </c>
       <c r="C72" s="2">
-        <v>106.62923400485801</v>
+        <v>106.643921600331</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1331,32 +1330,32 @@
         <v>9</v>
       </c>
       <c r="B73" s="2">
-        <v>-6.2142782486482604</v>
+        <v>-6.2425213117425802</v>
       </c>
       <c r="C73" s="2">
-        <v>106.59644388465399</v>
+        <v>106.63444903865501</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B74" s="2">
-        <v>-6.1184303725398896</v>
+        <v>-6.2367377732091196</v>
       </c>
       <c r="C74" s="2">
-        <v>106.88695036619001</v>
+        <v>106.62923400485801</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B75" s="2">
-        <v>-6.1291017774208596</v>
+        <v>-6.2142782486482604</v>
       </c>
       <c r="C75" s="2">
-        <v>106.829248544961</v>
+        <v>106.59644388465399</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1364,10 +1363,10 @@
         <v>11</v>
       </c>
       <c r="B76" s="2">
-        <v>-6.11500066547225</v>
+        <v>-6.1184303725398896</v>
       </c>
       <c r="C76" s="2">
-        <v>106.78855131779</v>
+        <v>106.88695036619001</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1375,10 +1374,10 @@
         <v>11</v>
       </c>
       <c r="B77" s="2">
-        <v>-6.1407701281047</v>
+        <v>-6.1291017774208596</v>
       </c>
       <c r="C77" s="2">
-        <v>106.777643859375</v>
+        <v>106.829248544961</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1386,10 +1385,10 @@
         <v>11</v>
       </c>
       <c r="B78" s="2">
-        <v>-6.1582242889267897</v>
+        <v>-6.11500066547225</v>
       </c>
       <c r="C78" s="2">
-        <v>106.87081878940501</v>
+        <v>106.78855131779</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1397,10 +1396,10 @@
         <v>11</v>
       </c>
       <c r="B79" s="2">
-        <v>-6.1742753141798898</v>
+        <v>-6.1407701281047</v>
       </c>
       <c r="C79" s="2">
-        <v>106.90092260728601</v>
+        <v>106.777643859375</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1408,10 +1407,10 @@
         <v>11</v>
       </c>
       <c r="B80" s="2">
-        <v>-6.1729635510563101</v>
+        <v>-6.1399027111706896</v>
       </c>
       <c r="C80" s="2">
-        <v>106.91204688981099</v>
+        <v>106.833842688852</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1419,10 +1418,10 @@
         <v>11</v>
       </c>
       <c r="B81" s="2">
-        <v>-6.1581632329758298</v>
+        <v>-6.1411139988578798</v>
       </c>
       <c r="C81" s="2">
-        <v>106.92164239991099</v>
+        <v>106.84032429998599</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1430,54 +1429,54 @@
         <v>11</v>
       </c>
       <c r="B82" s="2">
-        <v>-6.1299594579648202</v>
+        <v>-6.1431127714803697</v>
       </c>
       <c r="C82" s="2">
-        <v>106.92316038338799</v>
+        <v>106.862001379388</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B83" s="2">
-        <v>-6.3329544433414204</v>
+        <v>-6.1582242889267897</v>
       </c>
       <c r="C83" s="2">
-        <v>106.78152629809099</v>
+        <v>106.87081878940501</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B84" s="2">
-        <v>-6.3571276461883697</v>
+        <v>-6.1742753141798898</v>
       </c>
       <c r="C84" s="2">
-        <v>106.773584647755</v>
+        <v>106.90092260728601</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B85" s="2">
-        <v>-6.3881468497338698</v>
+        <v>-6.1729635510563101</v>
       </c>
       <c r="C85" s="2">
-        <v>106.74425823031601</v>
+        <v>106.91204688981099</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B86" s="2">
-        <v>-6.4384065177820897</v>
+        <v>-6.1581632329758298</v>
       </c>
       <c r="C86" s="2">
-        <v>106.751317345931</v>
+        <v>106.92164239991099</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1485,10 +1484,10 @@
         <v>12</v>
       </c>
       <c r="B87" s="2">
-        <v>-6.4383559790489997</v>
+        <v>-6.3329544433414204</v>
       </c>
       <c r="C87" s="2">
-        <v>106.84345358586999</v>
+        <v>106.78152629809099</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1496,10 +1495,10 @@
         <v>12</v>
       </c>
       <c r="B88" s="2">
-        <v>-6.4292072406034002</v>
+        <v>-6.3571276461883697</v>
       </c>
       <c r="C88" s="2">
-        <v>106.86115624629799</v>
+        <v>106.773584647755</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1507,10 +1506,10 @@
         <v>12</v>
       </c>
       <c r="B89" s="2">
-        <v>-6.4265720518650697</v>
+        <v>-6.3881468497338698</v>
       </c>
       <c r="C89" s="2">
-        <v>106.88440309625901</v>
+        <v>106.74425823031601</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1518,10 +1517,10 @@
         <v>12</v>
       </c>
       <c r="B90" s="2">
-        <v>-6.3740534466100298</v>
+        <v>-6.4384065177820897</v>
       </c>
       <c r="C90" s="2">
-        <v>106.89880214166701</v>
+        <v>106.751317345931</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -1529,54 +1528,54 @@
         <v>12</v>
       </c>
       <c r="B91" s="2">
-        <v>-6.3540452837614803</v>
+        <v>-6.4383559790489997</v>
       </c>
       <c r="C91" s="2">
-        <v>106.83728649616</v>
+        <v>106.84345358586999</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B92" s="2">
-        <v>-7.9256569807546402</v>
+        <v>-6.4292072406034002</v>
       </c>
       <c r="C92" s="2">
-        <v>112.61655709644</v>
+        <v>106.86115624629799</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B93" s="2">
-        <v>-7.92844010378123</v>
+        <v>-6.4265720518650697</v>
       </c>
       <c r="C93" s="2">
-        <v>112.611943677398</v>
+        <v>106.88440309625901</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B94" s="2">
-        <v>-7.9318192901176197</v>
+        <v>-6.3740534466100298</v>
       </c>
       <c r="C94" s="2">
-        <v>112.60311554414</v>
+        <v>106.89880214166701</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B95" s="2">
-        <v>-7.9398192114662498</v>
+        <v>-6.3540452837614803</v>
       </c>
       <c r="C95" s="2">
-        <v>112.587619484654</v>
+        <v>106.83728649616</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -1584,10 +1583,10 @@
         <v>13</v>
       </c>
       <c r="B96" s="2">
-        <v>-7.9450143762622503</v>
+        <v>-7.9256569807546402</v>
       </c>
       <c r="C96" s="2">
-        <v>112.593556746028</v>
+        <v>112.61655709644</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -1595,10 +1594,10 @@
         <v>13</v>
       </c>
       <c r="B97" s="2">
-        <v>-7.9445702556936899</v>
+        <v>-7.92844010378123</v>
       </c>
       <c r="C97" s="2">
-        <v>112.600800698635</v>
+        <v>112.611943677398</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -1606,10 +1605,10 @@
         <v>13</v>
       </c>
       <c r="B98" s="2">
-        <v>-7.9642616527446597</v>
+        <v>-7.9318192901176197</v>
       </c>
       <c r="C98" s="2">
-        <v>112.63258760869201</v>
+        <v>112.60311554414</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -1617,10 +1616,10 @@
         <v>13</v>
       </c>
       <c r="B99" s="2">
-        <v>-7.9850245391918699</v>
+        <v>-7.9398192114662498</v>
       </c>
       <c r="C99" s="2">
-        <v>112.60461851109601</v>
+        <v>112.587619484654</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -1628,10 +1627,10 @@
         <v>13</v>
       </c>
       <c r="B100" s="2">
-        <v>-7.9754713848562098</v>
+        <v>-7.9450143762622503</v>
       </c>
       <c r="C100" s="2">
-        <v>112.66324936684801</v>
+        <v>112.593556746028</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -1639,10 +1638,10 @@
         <v>13</v>
       </c>
       <c r="B101" s="2">
-        <v>-7.93724315430942</v>
+        <v>-7.9445702556936899</v>
       </c>
       <c r="C101" s="2">
-        <v>112.660537592029</v>
+        <v>112.600800698635</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -1650,54 +1649,54 @@
         <v>13</v>
       </c>
       <c r="B102" s="2">
-        <v>-7.9256569807546402</v>
+        <v>-7.9642616527446597</v>
       </c>
       <c r="C102" s="2">
-        <v>112.61655709644</v>
+        <v>112.63258760869201</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B103" s="2">
-        <v>-6.1727046669933996</v>
+        <v>-7.9850245391918699</v>
       </c>
       <c r="C103" s="2">
-        <v>106.960345101847</v>
+        <v>112.60461851109601</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B104" s="2">
-        <v>-6.1773611402240904</v>
+        <v>-7.9754713848562098</v>
       </c>
       <c r="C104" s="2">
-        <v>106.96840387861801</v>
+        <v>112.66324936684801</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B105" s="2">
-        <v>-6.1941361436293896</v>
+        <v>-7.93724315430942</v>
       </c>
       <c r="C105" s="2">
-        <v>106.953916926983</v>
+        <v>112.660537592029</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B106" s="2">
-        <v>-6.2307069036485601</v>
+        <v>-7.9256569807546402</v>
       </c>
       <c r="C106" s="2">
-        <v>106.930102097184</v>
+        <v>112.61655709644</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -1705,10 +1704,10 @@
         <v>14</v>
       </c>
       <c r="B107" s="2">
-        <v>-6.2502877428092898</v>
+        <v>-6.1727046669933996</v>
       </c>
       <c r="C107" s="2">
-        <v>106.924373959221</v>
+        <v>106.960345101847</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -1716,10 +1715,10 @@
         <v>14</v>
       </c>
       <c r="B108" s="2">
-        <v>-6.3036743190084996</v>
+        <v>-6.1773611402240904</v>
       </c>
       <c r="C108" s="2">
-        <v>106.91722139861101</v>
+        <v>106.96840387861801</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -1727,10 +1726,10 @@
         <v>14</v>
       </c>
       <c r="B109" s="2">
-        <v>-6.3444087082716401</v>
+        <v>-6.1941361436293896</v>
       </c>
       <c r="C109" s="2">
-        <v>106.896079501674</v>
+        <v>106.953916926983</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -1738,10 +1737,10 @@
         <v>14</v>
       </c>
       <c r="B110" s="2">
-        <v>-6.3698215823564901</v>
+        <v>-6.2307069036485601</v>
       </c>
       <c r="C110" s="2">
-        <v>106.883707040738</v>
+        <v>106.930102097184</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -1749,10 +1748,10 @@
         <v>14</v>
       </c>
       <c r="B111" s="2">
-        <v>-6.3544540487998296</v>
+        <v>-6.2502877428092898</v>
       </c>
       <c r="C111" s="2">
-        <v>106.87461379364299</v>
+        <v>106.924373959221</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -1760,10 +1759,10 @@
         <v>14</v>
       </c>
       <c r="B112" s="2">
-        <v>-6.3315574701449702</v>
+        <v>-6.2532950896669899</v>
       </c>
       <c r="C112" s="2">
-        <v>106.850930244179</v>
+        <v>106.90909598658</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -1771,10 +1770,10 @@
         <v>14</v>
       </c>
       <c r="B113" s="2">
-        <v>-6.3297125744558</v>
+        <v>-6.2687408499932404</v>
       </c>
       <c r="C113" s="2">
-        <v>106.85111425872201</v>
+        <v>106.88015049486199</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -1782,10 +1781,10 @@
         <v>14</v>
       </c>
       <c r="B114" s="2">
-        <v>-6.3106575502989504</v>
+        <v>-6.3444087082716401</v>
       </c>
       <c r="C114" s="2">
-        <v>106.880311146406</v>
+        <v>106.896079501674</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -1793,10 +1792,10 @@
         <v>14</v>
       </c>
       <c r="B115" s="2">
-        <v>-6.2855827090957597</v>
+        <v>-6.3544540487998296</v>
       </c>
       <c r="C115" s="2">
-        <v>106.87354562680601</v>
+        <v>106.87461379364299</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -1804,10 +1803,10 @@
         <v>14</v>
       </c>
       <c r="B116" s="2">
-        <v>-6.2730361293688697</v>
+        <v>-6.3315574701449702</v>
       </c>
       <c r="C116" s="2">
-        <v>106.86863215174</v>
+        <v>106.850930244179</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -1815,10 +1814,10 @@
         <v>14</v>
       </c>
       <c r="B117" s="2">
-        <v>-6.2640095274693799</v>
+        <v>-6.3297125744558</v>
       </c>
       <c r="C117" s="2">
-        <v>106.866677263065</v>
+        <v>106.85111425872201</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -1826,10 +1825,10 @@
         <v>14</v>
       </c>
       <c r="B118" s="2">
-        <v>-6.2420209019359598</v>
+        <v>-6.3106575502989504</v>
       </c>
       <c r="C118" s="2">
-        <v>106.871080802574</v>
+        <v>106.880311146406</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -1837,10 +1836,10 @@
         <v>14</v>
       </c>
       <c r="B119" s="2">
-        <v>-6.22758280628035</v>
+        <v>-6.2855827090957597</v>
       </c>
       <c r="C119" s="2">
-        <v>106.865721357114</v>
+        <v>106.87354562680601</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -1848,10 +1847,10 @@
         <v>14</v>
       </c>
       <c r="B120" s="2">
-        <v>-6.2113827574700302</v>
+        <v>-6.2730361293688697</v>
       </c>
       <c r="C120" s="2">
-        <v>106.864353677053</v>
+        <v>106.86863215174</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -1859,10 +1858,10 @@
         <v>14</v>
       </c>
       <c r="B121" s="2">
-        <v>-6.2014704183656901</v>
+        <v>-6.2640095274693799</v>
       </c>
       <c r="C121" s="2">
-        <v>106.854017667664</v>
+        <v>106.866677263065</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -1870,10 +1869,10 @@
         <v>14</v>
       </c>
       <c r="B122" s="2">
-        <v>-6.1927676700570302</v>
+        <v>-6.2420209019359598</v>
       </c>
       <c r="C122" s="2">
-        <v>106.865154055742</v>
+        <v>106.871080802574</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -1881,10 +1880,10 @@
         <v>14</v>
       </c>
       <c r="B123" s="2">
-        <v>-6.1889169704761704</v>
+        <v>-6.22758280628035</v>
       </c>
       <c r="C123" s="2">
-        <v>106.878972000754</v>
+        <v>106.865721357114</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -1892,10 +1891,10 @@
         <v>14</v>
       </c>
       <c r="B124" s="2">
-        <v>-6.1877419607206496</v>
+        <v>-6.2113827574700302</v>
       </c>
       <c r="C124" s="2">
-        <v>106.882979027925</v>
+        <v>106.864353677053</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -1903,10 +1902,10 @@
         <v>14</v>
       </c>
       <c r="B125" s="2">
-        <v>-6.1870269673112404</v>
+        <v>-6.2037072043288797</v>
       </c>
       <c r="C125" s="2">
-        <v>106.887014462141</v>
+        <v>106.865578695062</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -1914,54 +1913,54 @@
         <v>14</v>
       </c>
       <c r="B126" s="2">
+        <v>-6.1964366077060502</v>
+      </c>
+      <c r="C126" s="2">
+        <v>106.87105540185</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" s="2">
+        <v>-6.1889169704761704</v>
+      </c>
+      <c r="C127" s="2">
+        <v>106.878972000754</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" s="2">
+        <v>-6.1877419607206496</v>
+      </c>
+      <c r="C128" s="2">
+        <v>106.882979027925</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" s="2">
+        <v>-6.1870269673112404</v>
+      </c>
+      <c r="C129" s="2">
+        <v>106.887014462141</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" s="2">
         <v>-6.1805277026196999</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C130" s="2">
         <v>106.900059400427</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B127" s="2">
-        <v>-6.8621291436252703</v>
-      </c>
-      <c r="C127" s="2">
-        <v>107.604833187723</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B128" s="2">
-        <v>-6.8753076731145999</v>
-      </c>
-      <c r="C128" s="2">
-        <v>107.57965489572901</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" s="2">
-        <v>-6.8830984408803504</v>
-      </c>
-      <c r="C129" s="2">
-        <v>107.577888212871</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B130" s="2">
-        <v>-6.8863814837920403</v>
-      </c>
-      <c r="C130" s="2">
-        <v>107.578775509412</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -1969,10 +1968,10 @@
         <v>2</v>
       </c>
       <c r="B131" s="2">
-        <v>-6.8911085536547301</v>
+        <v>-6.8621291436252703</v>
       </c>
       <c r="C131" s="2">
-        <v>107.58162216163799</v>
+        <v>107.604833187723</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -1980,10 +1979,10 @@
         <v>2</v>
       </c>
       <c r="B132" s="2">
-        <v>-6.9259781361225103</v>
+        <v>-6.8753076731145999</v>
       </c>
       <c r="C132" s="2">
-        <v>107.57455641192</v>
+        <v>107.57965489572901</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -1991,10 +1990,10 @@
         <v>2</v>
       </c>
       <c r="B133" s="2">
-        <v>-6.9484273850404303</v>
+        <v>-6.8830984408803504</v>
       </c>
       <c r="C133" s="2">
-        <v>107.56236550705999</v>
+        <v>107.577888212871</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -2002,10 +2001,10 @@
         <v>2</v>
       </c>
       <c r="B134" s="2">
-        <v>-6.9480779906325596</v>
+        <v>-6.8863814837920403</v>
       </c>
       <c r="C134" s="2">
-        <v>107.57305596980601</v>
+        <v>107.578775509412</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -2013,10 +2012,10 @@
         <v>2</v>
       </c>
       <c r="B135" s="2">
-        <v>-6.9476781158588299</v>
+        <v>-6.8911085536547301</v>
       </c>
       <c r="C135" s="2">
-        <v>107.59014294539701</v>
+        <v>107.58162216163799</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -2024,10 +2023,10 @@
         <v>2</v>
       </c>
       <c r="B136" s="2">
-        <v>-6.9478589499499002</v>
+        <v>-6.9259781361225103</v>
       </c>
       <c r="C136" s="2">
-        <v>107.59230083988901</v>
+        <v>107.57455641192</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -2035,10 +2034,10 @@
         <v>2</v>
       </c>
       <c r="B137" s="2">
-        <v>-6.95215794193411</v>
+        <v>-6.9484273850404303</v>
       </c>
       <c r="C137" s="2">
-        <v>107.595570063994</v>
+        <v>107.56236550705999</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -2046,10 +2045,10 @@
         <v>2</v>
       </c>
       <c r="B138" s="2">
-        <v>-6.9557481501321901</v>
+        <v>-6.9480779906325596</v>
       </c>
       <c r="C138" s="2">
-        <v>107.624537688342</v>
+        <v>107.57305596980601</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -2057,10 +2056,10 @@
         <v>2</v>
       </c>
       <c r="B139" s="2">
-        <v>-6.9338311935374701</v>
+        <v>-6.9476781158588299</v>
       </c>
       <c r="C139" s="2">
-        <v>107.620260208424</v>
+        <v>107.59014294539701</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -2068,10 +2067,10 @@
         <v>2</v>
       </c>
       <c r="B140" s="2">
-        <v>-6.9292161600459803</v>
+        <v>-6.9478589499499002</v>
       </c>
       <c r="C140" s="2">
-        <v>107.622249398148</v>
+        <v>107.59230083988901</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -2079,10 +2078,10 @@
         <v>2</v>
       </c>
       <c r="B141" s="2">
-        <v>-6.9350688857201304</v>
+        <v>-6.95215794193411</v>
       </c>
       <c r="C141" s="2">
-        <v>107.666100553373</v>
+        <v>107.595570063994</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -2090,10 +2089,10 @@
         <v>2</v>
       </c>
       <c r="B142" s="2">
-        <v>-6.9344016512651701</v>
+        <v>-6.9557481501321901</v>
       </c>
       <c r="C142" s="2">
-        <v>107.713878615759</v>
+        <v>107.624537688342</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -2101,10 +2100,10 @@
         <v>2</v>
       </c>
       <c r="B143" s="2">
-        <v>-6.9288361603177302</v>
+        <v>-6.9338311935374701</v>
       </c>
       <c r="C143" s="2">
-        <v>107.713592240236</v>
+        <v>107.620260208424</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -2112,10 +2111,10 @@
         <v>2</v>
       </c>
       <c r="B144" s="2">
-        <v>-6.9019287652661196</v>
+        <v>-6.9292161600459803</v>
       </c>
       <c r="C144" s="2">
-        <v>107.68665745717099</v>
+        <v>107.622249398148</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -2123,10 +2122,10 @@
         <v>2</v>
       </c>
       <c r="B145" s="2">
-        <v>-6.9100897974885598</v>
+        <v>-6.9350688857201304</v>
       </c>
       <c r="C145" s="2">
-        <v>107.650436330818</v>
+        <v>107.666100553373</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -2134,10 +2133,10 @@
         <v>2</v>
       </c>
       <c r="B146" s="2">
-        <v>-6.9086429608622204</v>
+        <v>-6.9344016512651701</v>
       </c>
       <c r="C146" s="2">
-        <v>107.643899787731</v>
+        <v>107.713878615759</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -2145,10 +2144,10 @@
         <v>2</v>
       </c>
       <c r="B147" s="2">
-        <v>-6.8970047551847404</v>
+        <v>-6.9288361603177302</v>
       </c>
       <c r="C147" s="2">
-        <v>107.64454949959899</v>
+        <v>107.713592240236</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -2156,10 +2155,10 @@
         <v>2</v>
       </c>
       <c r="B148" s="2">
-        <v>-6.8972154189101502</v>
+        <v>-6.9019287652661196</v>
       </c>
       <c r="C148" s="2">
-        <v>107.630976623374</v>
+        <v>107.68665745717099</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -2167,10 +2166,10 @@
         <v>2</v>
       </c>
       <c r="B149" s="2">
-        <v>-6.8922289618078096</v>
+        <v>-6.9100897974885598</v>
       </c>
       <c r="C149" s="2">
-        <v>107.62653706015</v>
+        <v>107.650436330818</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -2178,10 +2177,10 @@
         <v>2</v>
       </c>
       <c r="B150" s="2">
-        <v>-6.88951999575134</v>
+        <v>-6.9086429608622204</v>
       </c>
       <c r="C150" s="2">
-        <v>107.62119215594601</v>
+        <v>107.643899787731</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -2189,10 +2188,10 @@
         <v>2</v>
       </c>
       <c r="B151" s="2">
-        <v>-6.8784516762297496</v>
+        <v>-6.8970047551847404</v>
       </c>
       <c r="C151" s="2">
-        <v>107.62469856316</v>
+        <v>107.64454949959899</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -2200,10 +2199,10 @@
         <v>2</v>
       </c>
       <c r="B152" s="2">
-        <v>-6.8774862854549399</v>
+        <v>-6.8972154189101502</v>
       </c>
       <c r="C152" s="2">
-        <v>107.623511458892</v>
+        <v>107.630976623374</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -2211,10 +2210,10 @@
         <v>2</v>
       </c>
       <c r="B153" s="2">
-        <v>-6.8759401329332803</v>
+        <v>-6.8922289618078096</v>
       </c>
       <c r="C153" s="2">
-        <v>107.619731983728</v>
+        <v>107.62653706015</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -2222,10 +2221,10 @@
         <v>2</v>
       </c>
       <c r="B154" s="2">
-        <v>-6.8782479096346503</v>
+        <v>-6.88951999575134</v>
       </c>
       <c r="C154" s="2">
-        <v>107.611826447309</v>
+        <v>107.62119215594601</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -2233,10 +2232,10 @@
         <v>2</v>
       </c>
       <c r="B155" s="2">
-        <v>-6.8702182904869602</v>
+        <v>-6.8784516762297496</v>
       </c>
       <c r="C155" s="2">
-        <v>107.60537536231701</v>
+        <v>107.62469856316</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -2244,54 +2243,54 @@
         <v>2</v>
       </c>
       <c r="B156" s="2">
-        <v>-6.8621291436252703</v>
+        <v>-6.8774862854549399</v>
       </c>
       <c r="C156" s="2">
-        <v>107.604833187723</v>
+        <v>107.623511458892</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B157" s="2">
-        <v>-7.67763080512223</v>
+        <v>-6.8759401329332803</v>
       </c>
       <c r="C157" s="2">
-        <v>110.410084875761</v>
+        <v>107.619731983728</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B158" s="2">
-        <v>-7.6860585868033704</v>
+        <v>-6.8782479096346503</v>
       </c>
       <c r="C158" s="2">
-        <v>110.411572688343</v>
+        <v>107.611826447309</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B159" s="2">
-        <v>-7.69512387388043</v>
+        <v>-6.8702182904869602</v>
       </c>
       <c r="C159" s="2">
-        <v>110.40930620476399</v>
+        <v>107.60537536231701</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B160" s="2">
-        <v>-7.7086075382891996</v>
+        <v>-6.8621291436252703</v>
       </c>
       <c r="C160" s="2">
-        <v>110.398136585158</v>
+        <v>107.604833187723</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -2299,10 +2298,10 @@
         <v>10</v>
       </c>
       <c r="B161" s="2">
-        <v>-7.7089705804272501</v>
+        <v>-7.67763080512223</v>
       </c>
       <c r="C161" s="2">
-        <v>110.372792305522</v>
+        <v>110.410084875761</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -2310,10 +2309,10 @@
         <v>10</v>
       </c>
       <c r="B162" s="2">
-        <v>-7.7424262637032504</v>
+        <v>-7.6860585868033704</v>
       </c>
       <c r="C162" s="2">
-        <v>110.348194360657</v>
+        <v>110.411572688343</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -2321,10 +2320,10 @@
         <v>10</v>
       </c>
       <c r="B163" s="2">
-        <v>-7.7646657602565199</v>
+        <v>-7.69512387388043</v>
       </c>
       <c r="C163" s="2">
-        <v>110.34962472391101</v>
+        <v>110.40930620476399</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -2332,10 +2331,10 @@
         <v>10</v>
       </c>
       <c r="B164" s="2">
-        <v>-7.7760936170232098</v>
+        <v>-7.7086075382891996</v>
       </c>
       <c r="C164" s="2">
-        <v>110.345694679625</v>
+        <v>110.398136585158</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -2343,10 +2342,10 @@
         <v>10</v>
       </c>
       <c r="B165" s="2">
-        <v>-7.7817285923101496</v>
+        <v>-7.7089705804272501</v>
       </c>
       <c r="C165" s="2">
-        <v>110.34560574297301</v>
+        <v>110.372792305522</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -2354,10 +2353,10 @@
         <v>10</v>
       </c>
       <c r="B166" s="2">
-        <v>-7.7664467442132796</v>
+        <v>-7.7424262637032504</v>
       </c>
       <c r="C166" s="2">
-        <v>110.356522312788</v>
+        <v>110.348194360657</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -2365,10 +2364,10 @@
         <v>10</v>
       </c>
       <c r="B167" s="2">
-        <v>-7.76384431140308</v>
+        <v>-7.7646657602565199</v>
       </c>
       <c r="C167" s="2">
-        <v>110.364119039426</v>
+        <v>110.34962472391101</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -2376,10 +2375,10 @@
         <v>10</v>
       </c>
       <c r="B168" s="2">
-        <v>-7.7584061917488896</v>
+        <v>-7.7760936170232098</v>
       </c>
       <c r="C168" s="2">
-        <v>110.374380203763</v>
+        <v>110.345694679625</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -2387,10 +2386,10 @@
         <v>10</v>
       </c>
       <c r="B169" s="2">
-        <v>-7.7702271235865199</v>
+        <v>-7.7817285923101496</v>
       </c>
       <c r="C169" s="2">
-        <v>110.395248865675</v>
+        <v>110.34560574297301</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -2398,10 +2397,10 @@
         <v>10</v>
       </c>
       <c r="B170" s="2">
-        <v>-7.7700442648344001</v>
+        <v>-7.7664467442132796</v>
       </c>
       <c r="C170" s="2">
-        <v>110.40885309914501</v>
+        <v>110.356522312788</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -2409,10 +2408,10 @@
         <v>10</v>
       </c>
       <c r="B171" s="2">
-        <v>-7.7703755115076101</v>
+        <v>-7.76384431140308</v>
       </c>
       <c r="C171" s="2">
-        <v>110.411932131306</v>
+        <v>110.364119039426</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -2420,10 +2419,10 @@
         <v>10</v>
       </c>
       <c r="B172" s="2">
-        <v>-7.7817096212246</v>
+        <v>-7.7584061917488896</v>
       </c>
       <c r="C172" s="2">
-        <v>110.43295149348</v>
+        <v>110.374380203763</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -2431,10 +2430,10 @@
         <v>10</v>
       </c>
       <c r="B173" s="2">
-        <v>-7.7790346433220297</v>
+        <v>-7.7702271235865199</v>
       </c>
       <c r="C173" s="2">
-        <v>110.44369847465499</v>
+        <v>110.395248865675</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -2442,10 +2441,10 @@
         <v>10</v>
       </c>
       <c r="B174" s="2">
-        <v>-7.7796936138134196</v>
+        <v>-7.7700442648344001</v>
       </c>
       <c r="C174" s="2">
-        <v>110.447809349894</v>
+        <v>110.40885309914501</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -2453,10 +2452,10 @@
         <v>10</v>
       </c>
       <c r="B175" s="2">
-        <v>-7.7660546374773398</v>
+        <v>-7.7703755115076101</v>
       </c>
       <c r="C175" s="2">
-        <v>110.445242071683</v>
+        <v>110.411932131306</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -2464,10 +2463,10 @@
         <v>10</v>
       </c>
       <c r="B176" s="2">
-        <v>-7.7601818398527103</v>
+        <v>-7.7817096212246</v>
       </c>
       <c r="C176" s="2">
-        <v>110.423715015065</v>
+        <v>110.43295149348</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -2475,10 +2474,10 @@
         <v>10</v>
       </c>
       <c r="B177" s="2">
-        <v>-7.7462063385226303</v>
+        <v>-7.7790346433220297</v>
       </c>
       <c r="C177" s="2">
-        <v>110.414765755137</v>
+        <v>110.44369847465499</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -2486,10 +2485,10 @@
         <v>10</v>
       </c>
       <c r="B178" s="2">
-        <v>-7.7432288026071099</v>
+        <v>-7.7796936138134196</v>
       </c>
       <c r="C178" s="2">
-        <v>110.41343620273599</v>
+        <v>110.447809349894</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -2497,10 +2496,10 @@
         <v>10</v>
       </c>
       <c r="B179" s="2">
-        <v>-7.7383056000000003</v>
+        <v>-7.7660546374773398</v>
       </c>
       <c r="C179" s="2">
-        <v>110.3983056</v>
+        <v>110.445242071683</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -2508,10 +2507,10 @@
         <v>10</v>
       </c>
       <c r="B180" s="2">
-        <v>-7.7375280073247703</v>
+        <v>-7.7601818398527103</v>
       </c>
       <c r="C180" s="2">
-        <v>110.390625009557</v>
+        <v>110.423715015065</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -2519,10 +2518,10 @@
         <v>10</v>
       </c>
       <c r="B181" s="2">
-        <v>-7.7008152356357096</v>
+        <v>-7.7462063385226303</v>
       </c>
       <c r="C181" s="2">
-        <v>110.419141725969</v>
+        <v>110.414765755137</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -2530,10 +2529,10 @@
         <v>10</v>
       </c>
       <c r="B182" s="2">
-        <v>-7.6907495195676399</v>
+        <v>-7.7432288026071099</v>
       </c>
       <c r="C182" s="2">
-        <v>110.422878757041</v>
+        <v>110.41343620273599</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -2541,54 +2540,54 @@
         <v>10</v>
       </c>
       <c r="B183" s="2">
-        <v>-7.67763080512223</v>
+        <v>-7.7383056000000003</v>
       </c>
       <c r="C183" s="2">
-        <v>110.410084875761</v>
+        <v>110.3983056</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B184" s="2">
-        <v>-6.1270910361722697</v>
+        <v>-7.7375280073247703</v>
       </c>
       <c r="C184" s="2">
-        <v>106.70621462883599</v>
+        <v>110.390625009557</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B185" s="2">
-        <v>-6.1453655281434596</v>
+        <v>-7.7008152356357096</v>
       </c>
       <c r="C185" s="2">
-        <v>106.698930156193</v>
+        <v>110.419141725969</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B186" s="2">
-        <v>-6.1504293830068502</v>
+        <v>-7.6907495195676399</v>
       </c>
       <c r="C186" s="2">
-        <v>106.699172836171</v>
+        <v>110.422878757041</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B187" s="2">
-        <v>-6.1735523010244302</v>
+        <v>-7.67763080512223</v>
       </c>
       <c r="C187" s="2">
-        <v>106.69617390000001</v>
+        <v>110.410084875761</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -2596,10 +2595,10 @@
         <v>7</v>
       </c>
       <c r="B188" s="2">
-        <v>-6.2233555803626199</v>
+        <v>-6.1270910361722697</v>
       </c>
       <c r="C188" s="2">
-        <v>106.73030561716701</v>
+        <v>106.70621462883599</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -2607,10 +2606,10 @@
         <v>7</v>
       </c>
       <c r="B189" s="2">
-        <v>-6.2169622797816002</v>
+        <v>-6.1453655281434596</v>
       </c>
       <c r="C189" s="2">
-        <v>106.760698591525</v>
+        <v>106.698930156193</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -2618,10 +2617,10 @@
         <v>7</v>
       </c>
       <c r="B190" s="2">
-        <v>-6.2207872886799898</v>
+        <v>-6.1504293830068502</v>
       </c>
       <c r="C190" s="2">
-        <v>106.76792602678999</v>
+        <v>106.699172836171</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -2629,10 +2628,10 @@
         <v>7</v>
       </c>
       <c r="B191" s="2">
-        <v>-6.2039193778212498</v>
+        <v>-6.1735523010244302</v>
       </c>
       <c r="C191" s="2">
-        <v>106.77960270665901</v>
+        <v>106.69617390000001</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -2640,10 +2639,10 @@
         <v>7</v>
       </c>
       <c r="B192" s="2">
-        <v>-6.2020577337497897</v>
+        <v>-6.2233555803626199</v>
       </c>
       <c r="C192" s="2">
-        <v>106.786119880659</v>
+        <v>106.73030561716701</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -2651,10 +2650,10 @@
         <v>7</v>
       </c>
       <c r="B193" s="2">
-        <v>-6.20169442295611</v>
+        <v>-6.2169622797816002</v>
       </c>
       <c r="C193" s="2">
-        <v>106.787924420633</v>
+        <v>106.760698591525</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -2662,10 +2661,10 @@
         <v>7</v>
       </c>
       <c r="B194" s="2">
-        <v>-6.2040303111684496</v>
+        <v>-6.2207872886799898</v>
       </c>
       <c r="C194" s="2">
-        <v>106.796260673113</v>
+        <v>106.76792602678999</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -2673,10 +2672,10 @@
         <v>7</v>
       </c>
       <c r="B195" s="2">
-        <v>-6.1865002750578899</v>
+        <v>-6.2039193778212498</v>
       </c>
       <c r="C195" s="2">
-        <v>106.807667370552</v>
+        <v>106.77960270665901</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -2684,10 +2683,10 @@
         <v>7</v>
       </c>
       <c r="B196" s="2">
-        <v>-6.1789073342916501</v>
+        <v>-6.2020577337497897</v>
       </c>
       <c r="C196" s="2">
-        <v>106.80273373151999</v>
+        <v>106.786119880659</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -2695,10 +2694,10 @@
         <v>7</v>
       </c>
       <c r="B197" s="2">
-        <v>-6.1764820941266096</v>
+        <v>-6.20169442295611</v>
       </c>
       <c r="C197" s="2">
-        <v>106.805432218416</v>
+        <v>106.787924420633</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -2706,10 +2705,10 @@
         <v>7</v>
       </c>
       <c r="B198" s="2">
-        <v>-6.1714873015717702</v>
+        <v>-6.2040303111684496</v>
       </c>
       <c r="C198" s="2">
-        <v>106.802123407313</v>
+        <v>106.796260673113</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -2717,10 +2716,10 @@
         <v>7</v>
       </c>
       <c r="B199" s="2">
-        <v>-6.1586783208663798</v>
+        <v>-6.1846896862968999</v>
       </c>
       <c r="C199" s="2">
-        <v>106.817412928015</v>
+        <v>106.803494598749</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -2728,10 +2727,10 @@
         <v>7</v>
       </c>
       <c r="B200" s="2">
-        <v>-6.15737125638704</v>
+        <v>-6.1789073342916501</v>
       </c>
       <c r="C200" s="2">
-        <v>106.824229065127</v>
+        <v>106.80273373151999</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -2739,10 +2738,10 @@
         <v>7</v>
       </c>
       <c r="B201" s="2">
-        <v>-6.1532371543364404</v>
+        <v>-6.1764820941266096</v>
       </c>
       <c r="C201" s="2">
-        <v>106.82644782721501</v>
+        <v>106.805432218416</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -2750,10 +2749,10 @@
         <v>7</v>
       </c>
       <c r="B202" s="2">
-        <v>-6.1508005661214602</v>
+        <v>-6.1705699885295298</v>
       </c>
       <c r="C202" s="2">
-        <v>106.82090064792</v>
+        <v>106.800954959031</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -2761,10 +2760,10 @@
         <v>7</v>
       </c>
       <c r="B203" s="2">
-        <v>-6.1414062659241404</v>
+        <v>-6.15833124863246</v>
       </c>
       <c r="C203" s="2">
-        <v>106.822338346015</v>
+        <v>106.815609905974</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -2772,10 +2771,10 @@
         <v>7</v>
       </c>
       <c r="B204" s="2">
-        <v>-6.1414733962960497</v>
+        <v>-6.1508005661214602</v>
       </c>
       <c r="C204" s="2">
-        <v>106.805058584516</v>
+        <v>106.82090064792</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -2783,10 +2782,10 @@
         <v>7</v>
       </c>
       <c r="B205" s="2">
-        <v>-6.1408676891265204</v>
+        <v>-6.1478668881936098</v>
       </c>
       <c r="C205" s="2">
-        <v>106.803321693253</v>
+        <v>106.78473292883599</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -2794,10 +2793,10 @@
         <v>7</v>
       </c>
       <c r="B206" s="2">
-        <v>-6.1478668881936098</v>
+        <v>-6.14751445057151</v>
       </c>
       <c r="C206" s="2">
-        <v>106.78473292883599</v>
+        <v>106.783363169938</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -2805,10 +2804,10 @@
         <v>7</v>
       </c>
       <c r="B207" s="2">
-        <v>-6.14751445057151</v>
+        <v>-6.1559757663992798</v>
       </c>
       <c r="C207" s="2">
-        <v>106.783363169938</v>
+        <v>106.771307056173</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -2816,10 +2815,10 @@
         <v>7</v>
       </c>
       <c r="B208" s="2">
-        <v>-6.1559757663992798</v>
+        <v>-6.1635598996321797</v>
       </c>
       <c r="C208" s="2">
-        <v>106.771307056173</v>
+        <v>106.77075495671301</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -2827,10 +2826,10 @@
         <v>7</v>
       </c>
       <c r="B209" s="2">
-        <v>-6.1635598996321797</v>
+        <v>-6.1670666648812498</v>
       </c>
       <c r="C209" s="2">
-        <v>106.77075495671301</v>
+        <v>106.76073431534201</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -2838,10 +2837,10 @@
         <v>7</v>
       </c>
       <c r="B210" s="2">
-        <v>-6.1670666648812498</v>
+        <v>-6.1806107215925703</v>
       </c>
       <c r="C210" s="2">
-        <v>106.76073431534201</v>
+        <v>106.75024980075401</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -2849,10 +2848,10 @@
         <v>7</v>
       </c>
       <c r="B211" s="2">
-        <v>-6.1806107215925703</v>
+        <v>-6.1971774756584397</v>
       </c>
       <c r="C211" s="2">
-        <v>106.75024980075401</v>
+        <v>106.72448785767099</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -2860,10 +2859,10 @@
         <v>7</v>
       </c>
       <c r="B212" s="2">
-        <v>-6.1971774756584397</v>
+        <v>-6.1814198851895297</v>
       </c>
       <c r="C212" s="2">
-        <v>106.72448785767099</v>
+        <v>106.719078802672</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -2871,10 +2870,10 @@
         <v>7</v>
       </c>
       <c r="B213" s="2">
-        <v>-6.1814198851895297</v>
+        <v>-6.1704019997277397</v>
       </c>
       <c r="C213" s="2">
-        <v>106.719078802672</v>
+        <v>106.723327093252</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -2882,10 +2881,10 @@
         <v>7</v>
       </c>
       <c r="B214" s="2">
-        <v>-6.1704019997277397</v>
+        <v>-6.1483182889514998</v>
       </c>
       <c r="C214" s="2">
-        <v>106.723327093252</v>
+        <v>106.720796003437</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -2893,10 +2892,10 @@
         <v>7</v>
       </c>
       <c r="B215" s="2">
-        <v>-6.1483182889514998</v>
+        <v>-6.1442736660948896</v>
       </c>
       <c r="C215" s="2">
-        <v>106.720796003437</v>
+        <v>106.724452388343</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -2904,10 +2903,10 @@
         <v>7</v>
       </c>
       <c r="B216" s="2">
-        <v>-6.1442736660948896</v>
+        <v>-6.1344746271792401</v>
       </c>
       <c r="C216" s="2">
-        <v>106.724452388343</v>
+        <v>106.733377853212</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -2915,10 +2914,10 @@
         <v>7</v>
       </c>
       <c r="B217" s="2">
-        <v>-6.1344746271792401</v>
+        <v>-6.1271606193022699</v>
       </c>
       <c r="C217" s="2">
-        <v>106.733377853212</v>
+        <v>106.72531622957</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -2926,1213 +2925,1213 @@
         <v>7</v>
       </c>
       <c r="B218" s="2">
-        <v>-6.1271606193022699</v>
+        <v>-6.1270910361722697</v>
       </c>
       <c r="C218" s="2">
-        <v>106.72531622957</v>
+        <v>106.70621462883599</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B219" s="2">
-        <v>-6.1270910361722697</v>
+        <v>-6.3944804489105103</v>
       </c>
       <c r="C219" s="2">
-        <v>106.70621462883599</v>
+        <v>106.90858156514101</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="6" t="s">
+      <c r="A220" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B220" s="2">
-        <v>-6.3944804489105103</v>
+        <v>-6.37723896917778</v>
       </c>
       <c r="C220" s="2">
-        <v>106.90858156514101</v>
+        <v>106.93343692729999</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="6" t="s">
+      <c r="A221" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B221" s="2">
-        <v>-6.37723896917778</v>
+        <v>-6.3422350734117598</v>
       </c>
       <c r="C221" s="2">
-        <v>106.93343692729999</v>
+        <v>106.935527055821</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="6" t="s">
+      <c r="A222" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B222" s="2">
-        <v>-6.3422350734117598</v>
+        <v>-6.3086967775452703</v>
       </c>
       <c r="C222" s="2">
-        <v>106.935527055821</v>
+        <v>106.924585173984</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="6" t="s">
+      <c r="A223" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B223" s="2">
-        <v>-6.3086967775452703</v>
+        <v>-6.2799996748398996</v>
       </c>
       <c r="C223" s="2">
-        <v>106.924585173984</v>
+        <v>106.909333129198</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="6" t="s">
+      <c r="A224" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B224" s="2">
+        <v>-6.2595204293576501</v>
+      </c>
+      <c r="C224" s="2">
+        <v>106.909748616694</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B225" s="2">
+        <v>-6.2569531062099202</v>
+      </c>
+      <c r="C225" s="2">
+        <v>106.92614816232501</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B226" s="2">
+        <v>-6.2434044296282796</v>
+      </c>
+      <c r="C226" s="2">
+        <v>106.955021704766</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B227" s="2">
+        <v>-6.1846496235901798</v>
+      </c>
+      <c r="C227" s="2">
+        <v>106.97803693738</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B228" s="2">
+        <v>-6.1828195282358402</v>
+      </c>
+      <c r="C228" s="2">
+        <v>106.989081054902</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B229" s="2">
+        <v>-6.2214658816200803</v>
+      </c>
+      <c r="C229" s="2">
+        <v>107.024961990469</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B230" s="2">
+        <v>-6.2449331895651996</v>
+      </c>
+      <c r="C230" s="2">
+        <v>106.98994808665</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B231" s="2">
+        <v>-6.2735121291675098</v>
+      </c>
+      <c r="C231" s="2">
+        <v>107.00377871344899</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B232" s="2">
+        <v>-6.2629477351969198</v>
+      </c>
+      <c r="C232" s="2">
+        <v>106.99506265889499</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B233" s="2">
+        <v>-6.2600134131383598</v>
+      </c>
+      <c r="C233" s="2">
+        <v>106.988499974641</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B234" s="2">
+        <v>-6.2487017567036398</v>
+      </c>
+      <c r="C234" s="2">
+        <v>106.97405782946799</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B235" s="2">
+        <v>-6.2506543009441096</v>
+      </c>
+      <c r="C235" s="2">
+        <v>106.969970513668</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B236" s="2">
+        <v>-6.2538592847944896</v>
+      </c>
+      <c r="C236" s="2">
+        <v>106.956054973658</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B237" s="2">
+        <v>-6.2673295933430202</v>
+      </c>
+      <c r="C237" s="2">
+        <v>106.92497573214</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B238" s="2">
         <v>-6.2799996748398996</v>
       </c>
-      <c r="C224" s="2">
+      <c r="C238" s="2">
         <v>106.909333129198</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B225" s="2">
-        <v>-6.2595204293576501</v>
-      </c>
-      <c r="C225" s="2">
-        <v>106.909748616694</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B226" s="2">
-        <v>-6.2569531062099202</v>
-      </c>
-      <c r="C226" s="2">
-        <v>106.92614816232501</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B227" s="2">
-        <v>-6.2434044296282796</v>
-      </c>
-      <c r="C227" s="2">
-        <v>106.955021704766</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B228" s="2">
-        <v>-6.1846496235901798</v>
-      </c>
-      <c r="C228" s="2">
-        <v>106.97803693738</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B229" s="2">
-        <v>-6.1828195282358402</v>
-      </c>
-      <c r="C229" s="2">
-        <v>106.989081054902</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B230" s="2">
-        <v>-6.2214658816200803</v>
-      </c>
-      <c r="C230" s="2">
-        <v>107.024961990469</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B231" s="2">
-        <v>-6.2449331895651996</v>
-      </c>
-      <c r="C231" s="2">
-        <v>106.98994808665</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B232" s="2">
-        <v>-6.2735121291675098</v>
-      </c>
-      <c r="C232" s="2">
-        <v>107.00377871344899</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B233" s="2">
-        <v>-6.2629477351969198</v>
-      </c>
-      <c r="C233" s="2">
-        <v>106.99506265889499</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B234" s="2">
-        <v>-6.2600134131383598</v>
-      </c>
-      <c r="C234" s="2">
-        <v>106.988499974641</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B235" s="2">
-        <v>-6.2487017567036398</v>
-      </c>
-      <c r="C235" s="2">
-        <v>106.97405782946799</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B236" s="2">
-        <v>-6.2506543009441096</v>
-      </c>
-      <c r="C236" s="2">
-        <v>106.969970513668</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B237" s="2">
-        <v>-6.2538592847944896</v>
-      </c>
-      <c r="C237" s="2">
-        <v>106.956054973658</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B238" s="2">
-        <v>-6.2673295933430202</v>
-      </c>
-      <c r="C238" s="2">
-        <v>106.92497573214</v>
-      </c>
-    </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="6" t="s">
-        <v>16</v>
+      <c r="A239" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B239" s="2">
-        <v>-6.2799996748398996</v>
+        <v>-6.4708891609016996</v>
       </c>
       <c r="C239" s="2">
-        <v>106.909333129198</v>
+        <v>106.85023073298601</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="6" t="s">
+      <c r="A240" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B240" s="2">
+        <v>-6.55094821034454</v>
+      </c>
+      <c r="C240" s="2">
+        <v>106.7316562</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B241" s="2">
+        <v>-6.55996763897347</v>
+      </c>
+      <c r="C241" s="2">
+        <v>106.716314919863</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B242" s="2">
+        <v>-6.5627585247857603</v>
+      </c>
+      <c r="C242" s="2">
+        <v>106.71753649999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B243" s="2">
+        <v>-6.5677055095683601</v>
+      </c>
+      <c r="C243" s="2">
+        <v>106.730322403074</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B244" s="2">
+        <v>-6.5842148233419699</v>
+      </c>
+      <c r="C244" s="2">
+        <v>106.731694713138</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B245" s="2">
+        <v>-6.57540484957432</v>
+      </c>
+      <c r="C245" s="2">
+        <v>106.74975092576101</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B246" s="2">
+        <v>-6.5751148068354004</v>
+      </c>
+      <c r="C246" s="2">
+        <v>106.846767358091</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B247" s="2">
+        <v>-6.6611457570488897</v>
+      </c>
+      <c r="C247" s="2">
+        <v>106.85771510850201</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B248" s="2">
+        <v>-6.5833750094888197</v>
+      </c>
+      <c r="C248" s="2">
+        <v>106.88531365454099</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B249" s="2">
+        <v>-6.5822987029617401</v>
+      </c>
+      <c r="C249" s="2">
+        <v>106.889146885662</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B250" s="2">
+        <v>-6.57874168091959</v>
+      </c>
+      <c r="C250" s="2">
+        <v>106.88522783134</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B251" s="2">
+        <v>-6.5781314195842899</v>
+      </c>
+      <c r="C251" s="2">
+        <v>106.88420477301101</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B252" s="2">
+        <v>-6.5609432338392004</v>
+      </c>
+      <c r="C252" s="2">
+        <v>106.862821170552</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B253" s="2">
+        <v>-6.5560365720693303</v>
+      </c>
+      <c r="C253" s="2">
+        <v>106.864100581758</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B254" s="2">
+        <v>-6.5518865910563102</v>
+      </c>
+      <c r="C254" s="2">
+        <v>106.861901875184</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B255" s="2">
+        <v>-6.5150142422928603</v>
+      </c>
+      <c r="C255" s="2">
+        <v>106.831417816428</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B256" s="2">
         <v>-6.4708891609016996</v>
       </c>
-      <c r="C240" s="2">
+      <c r="C256" s="2">
         <v>106.85023073298601</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B241" s="2">
-        <v>-6.55094821034454</v>
-      </c>
-      <c r="C241" s="2">
-        <v>106.7316562</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B242" s="2">
-        <v>-6.55996763897347</v>
-      </c>
-      <c r="C242" s="2">
-        <v>106.716314919863</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B243" s="2">
-        <v>-6.5627585247857603</v>
-      </c>
-      <c r="C243" s="2">
-        <v>106.71753649999999</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B244" s="2">
-        <v>-6.5677055095683601</v>
-      </c>
-      <c r="C244" s="2">
-        <v>106.730322403074</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B245" s="2">
-        <v>-6.5842148233419699</v>
-      </c>
-      <c r="C245" s="2">
-        <v>106.731694713138</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B246" s="2">
-        <v>-6.57540484957432</v>
-      </c>
-      <c r="C246" s="2">
-        <v>106.74975092576101</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B247" s="2">
-        <v>-6.5751148068354004</v>
-      </c>
-      <c r="C247" s="2">
-        <v>106.846767358091</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B248" s="2">
-        <v>-6.6611457570488897</v>
-      </c>
-      <c r="C248" s="2">
-        <v>106.85771510850201</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B249" s="2">
-        <v>-6.5833750094888197</v>
-      </c>
-      <c r="C249" s="2">
-        <v>106.88531365454099</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B250" s="2">
-        <v>-6.5822987029617401</v>
-      </c>
-      <c r="C250" s="2">
-        <v>106.889146885662</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B251" s="2">
-        <v>-6.57874168091959</v>
-      </c>
-      <c r="C251" s="2">
-        <v>106.88522783134</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B252" s="2">
-        <v>-6.5781314195842899</v>
-      </c>
-      <c r="C252" s="2">
-        <v>106.88420477301101</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B253" s="2">
-        <v>-6.5609432338392004</v>
-      </c>
-      <c r="C253" s="2">
-        <v>106.862821170552</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B254" s="2">
-        <v>-6.5560365720693303</v>
-      </c>
-      <c r="C254" s="2">
-        <v>106.864100581758</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B255" s="2">
-        <v>-6.5518865910563102</v>
-      </c>
-      <c r="C255" s="2">
-        <v>106.861901875184</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B256" s="2">
-        <v>-6.5150142422928603</v>
-      </c>
-      <c r="C256" s="2">
-        <v>106.831417816428</v>
-      </c>
-    </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" s="6" t="s">
-        <v>17</v>
+      <c r="A257" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B257" s="2">
-        <v>-6.4708891609016996</v>
+        <v>-6.1182271395775798</v>
       </c>
       <c r="C257" s="2">
-        <v>106.85023073298601</v>
+        <v>106.689450886739</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="6" t="s">
+      <c r="A258" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B258" s="2">
+        <v>-6.1658115666337503</v>
+      </c>
+      <c r="C258" s="2">
+        <v>106.63462988773099</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B259" s="2">
+        <v>-6.1703176981350998</v>
+      </c>
+      <c r="C259" s="2">
+        <v>106.62558968163999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B260" s="2">
+        <v>-6.2065790121948599</v>
+      </c>
+      <c r="C260" s="2">
+        <v>106.603433918452</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B261" s="2">
+        <v>-6.1919674053054603</v>
+      </c>
+      <c r="C261" s="2">
+        <v>106.633368585895</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B262" s="2">
+        <v>-6.2309294092587901</v>
+      </c>
+      <c r="C262" s="2">
+        <v>106.659065843443</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B263" s="2">
+        <v>-6.2275603459832602</v>
+      </c>
+      <c r="C263" s="2">
+        <v>106.663281775017</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B264" s="2">
+        <v>-6.2272384927096303</v>
+      </c>
+      <c r="C264" s="2">
+        <v>106.68425133124499</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B265" s="2">
+        <v>-6.2224847656466196</v>
+      </c>
+      <c r="C265" s="2">
+        <v>106.70555285594899</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B266" s="2">
+        <v>-6.2035289364856601</v>
+      </c>
+      <c r="C266" s="2">
+        <v>106.69489982251</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B267" s="2">
+        <v>-6.1748271095270999</v>
+      </c>
+      <c r="C267" s="2">
+        <v>106.654486225051</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B268" s="2">
         <v>-6.1182271395775798</v>
       </c>
-      <c r="C258" s="2">
+      <c r="C268" s="2">
         <v>106.689450886739</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B259" s="2">
-        <v>-6.1658115666337503</v>
-      </c>
-      <c r="C259" s="2">
-        <v>106.63462988773099</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B260" s="2">
-        <v>-6.1703176981350998</v>
-      </c>
-      <c r="C260" s="2">
-        <v>106.62558968163999</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B261" s="2">
-        <v>-6.2065790121948599</v>
-      </c>
-      <c r="C261" s="2">
-        <v>106.603433918452</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A262" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B262" s="2">
-        <v>-6.2256072381246197</v>
-      </c>
-      <c r="C262" s="2">
-        <v>106.588017534339</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B263" s="2">
-        <v>-6.2291928381359796</v>
-      </c>
-      <c r="C263" s="2">
-        <v>106.587097526395</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B264" s="2">
-        <v>-6.1919674053054603</v>
-      </c>
-      <c r="C264" s="2">
-        <v>106.633368585895</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B265" s="2">
-        <v>-6.2309294092587901</v>
-      </c>
-      <c r="C265" s="2">
-        <v>106.659065843443</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B266" s="2">
-        <v>-6.2275603459832602</v>
-      </c>
-      <c r="C266" s="2">
-        <v>106.663281775017</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B267" s="2">
-        <v>-6.2272384927096303</v>
-      </c>
-      <c r="C267" s="2">
-        <v>106.68425133124499</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B268" s="2">
-        <v>-6.2224847656466196</v>
-      </c>
-      <c r="C268" s="2">
-        <v>106.70555285594899</v>
-      </c>
-    </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" s="6" t="s">
-        <v>18</v>
+      <c r="A269" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B269" s="2">
-        <v>-6.2300531452902099</v>
+        <v>3.6291711433848799</v>
       </c>
       <c r="C269" s="2">
-        <v>106.730004761877</v>
+        <v>98.677763533262294</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="6" t="s">
-        <v>18</v>
+      <c r="A270" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B270" s="2">
-        <v>-6.2238665220697804</v>
+        <v>3.61048925250459</v>
       </c>
       <c r="C270" s="2">
-        <v>106.736766824491</v>
+        <v>98.630054264303794</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="6" t="s">
-        <v>18</v>
+      <c r="A271" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B271" s="2">
-        <v>-6.2019745948416096</v>
+        <v>3.5879428866324701</v>
       </c>
       <c r="C271" s="2">
-        <v>106.722694848095</v>
+        <v>98.654139371163694</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="6" t="s">
-        <v>18</v>
+      <c r="A272" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B272" s="2">
-        <v>-6.2035289364856601</v>
+        <v>3.58505707320109</v>
       </c>
       <c r="C272" s="2">
-        <v>106.69489982251</v>
+        <v>98.649863142305605</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" s="6" t="s">
-        <v>18</v>
+      <c r="A273" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B273" s="2">
-        <v>-6.1748271095270999</v>
+        <v>3.5570037249060502</v>
       </c>
       <c r="C273" s="2">
-        <v>106.654486225051</v>
+        <v>98.639222203721204</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="6" t="s">
-        <v>18</v>
+      <c r="A274" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B274" s="2">
-        <v>-6.1182271395775798</v>
+        <v>3.5448651296503</v>
       </c>
       <c r="C274" s="2">
-        <v>106.689450886739</v>
+        <v>98.623782330478207</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" s="6" t="s">
+      <c r="A275" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B275" s="2">
+        <v>3.5033472845356601</v>
+      </c>
+      <c r="C275" s="2">
+        <v>98.612679600000007</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B276" s="2">
+        <v>3.5344431695366998</v>
+      </c>
+      <c r="C276" s="2">
+        <v>98.625254910436496</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B277" s="2">
+        <v>3.5495766757557901</v>
+      </c>
+      <c r="C277" s="2">
+        <v>98.649040373530894</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B278" s="2">
+        <v>3.5372179021223098</v>
+      </c>
+      <c r="C278" s="2">
+        <v>98.689941028790301</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B279" s="2">
+        <v>3.5417873797806299</v>
+      </c>
+      <c r="C279" s="2">
+        <v>98.691961681578306</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B280" s="2">
+        <v>3.5581830523561702</v>
+      </c>
+      <c r="C280" s="2">
+        <v>98.649480170661505</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B281" s="2">
+        <v>3.5796192419858399</v>
+      </c>
+      <c r="C281" s="2">
+        <v>98.657037467958702</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B282" s="2">
+        <v>3.5858773892145002</v>
+      </c>
+      <c r="C282" s="2">
+        <v>98.663019354000298</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B283" s="2">
         <v>3.6291711433848799</v>
       </c>
-      <c r="C275" s="2">
+      <c r="C283" s="2">
         <v>98.677763533262294</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B276" s="2">
-        <v>3.61048925250459</v>
-      </c>
-      <c r="C276" s="2">
-        <v>98.630054264303794</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B277" s="2">
-        <v>3.5879428866324701</v>
-      </c>
-      <c r="C277" s="2">
-        <v>98.654139371163694</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B278" s="2">
-        <v>3.58505707320109</v>
-      </c>
-      <c r="C278" s="2">
-        <v>98.649863142305605</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B279" s="2">
-        <v>3.5570037249060502</v>
-      </c>
-      <c r="C279" s="2">
-        <v>98.639222203721204</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B280" s="2">
-        <v>3.5448651296503</v>
-      </c>
-      <c r="C280" s="2">
-        <v>98.623782330478207</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B281" s="2">
-        <v>3.5033472845356601</v>
-      </c>
-      <c r="C281" s="2">
-        <v>98.612679600000007</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B282" s="2">
-        <v>3.5344431695366998</v>
-      </c>
-      <c r="C282" s="2">
-        <v>98.625254910436496</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B283" s="2">
-        <v>3.5495766757557901</v>
-      </c>
-      <c r="C283" s="2">
-        <v>98.649040373530894</v>
-      </c>
-    </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="6" t="s">
-        <v>19</v>
+      <c r="A284" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B284" s="2">
-        <v>3.5372179021223098</v>
+        <v>-7.3461894487855703</v>
       </c>
       <c r="C284" s="2">
-        <v>98.689941028790301</v>
+        <v>112.736677438743</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="6" t="s">
-        <v>19</v>
+      <c r="A285" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B285" s="2">
-        <v>3.5417873797806299</v>
+        <v>-7.3611955610731901</v>
       </c>
       <c r="C285" s="2">
-        <v>98.691961681578306</v>
+        <v>112.723870735397</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A286" s="6" t="s">
-        <v>19</v>
+      <c r="A286" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B286" s="2">
-        <v>3.5581830523561702</v>
+        <v>-7.3757067533053302</v>
       </c>
       <c r="C286" s="2">
-        <v>98.649480170661505</v>
+        <v>112.714181654238</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A287" s="6" t="s">
-        <v>19</v>
+      <c r="A287" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B287" s="2">
-        <v>3.5796192419858399</v>
+        <v>-7.4233797791966403</v>
       </c>
       <c r="C287" s="2">
-        <v>98.657037467958702</v>
+        <v>112.715165874531</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="6" t="s">
-        <v>19</v>
+      <c r="A288" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B288" s="2">
-        <v>3.5858773892145002</v>
+        <v>-7.4403804887102503</v>
       </c>
       <c r="C288" s="2">
-        <v>98.663019354000298</v>
+        <v>112.70602909045201</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" s="6" t="s">
-        <v>19</v>
+      <c r="A289" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B289" s="2">
-        <v>3.6291711433848799</v>
+        <v>-7.4531456113440404</v>
       </c>
       <c r="C289" s="2">
-        <v>98.677763533262294</v>
+        <v>112.700451966307</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="6" t="s">
+      <c r="A290" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B290" s="2">
+        <v>-7.4542685887892901</v>
+      </c>
+      <c r="C290" s="2">
+        <v>112.715282866547</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B291" s="2">
+        <v>-7.4472994525603999</v>
+      </c>
+      <c r="C291" s="2">
+        <v>112.739181071163</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B292" s="2">
+        <v>-7.3769364274102696</v>
+      </c>
+      <c r="C292" s="2">
+        <v>112.758907931186</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B293" s="2">
+        <v>-7.3719156890953403</v>
+      </c>
+      <c r="C293" s="2">
+        <v>112.755409524903</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B294" s="2">
         <v>-7.3461894487855703</v>
       </c>
-      <c r="C290" s="2">
+      <c r="C294" s="2">
         <v>112.736677438743</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A291" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B291" s="2">
-        <v>-7.3611955610731901</v>
-      </c>
-      <c r="C291" s="2">
-        <v>112.723870735397</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B292" s="2">
-        <v>-7.3757067533053302</v>
-      </c>
-      <c r="C292" s="2">
-        <v>112.714181654238</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A293" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B293" s="2">
-        <v>-7.4233797791966403</v>
-      </c>
-      <c r="C293" s="2">
-        <v>112.715165874531</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A294" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B294" s="2">
-        <v>-7.4403804887102503</v>
-      </c>
-      <c r="C294" s="2">
-        <v>112.70602909045201</v>
-      </c>
-    </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="6" t="s">
-        <v>20</v>
+      <c r="A295" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B295" s="2">
-        <v>-7.4531456113440404</v>
+        <v>-7.5416428858305702</v>
       </c>
       <c r="C295" s="2">
-        <v>112.700451966307</v>
+        <v>110.81949914090499</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296" s="6" t="s">
-        <v>20</v>
+      <c r="A296" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B296" s="2">
-        <v>-7.4542685887892901</v>
+        <v>-7.5513991006079602</v>
       </c>
       <c r="C296" s="2">
-        <v>112.715282866547</v>
+        <v>110.81434904186101</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="6" t="s">
-        <v>20</v>
+      <c r="A297" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B297" s="2">
-        <v>-7.4472994525603999</v>
+        <v>-7.5587806647799898</v>
       </c>
       <c r="C297" s="2">
-        <v>112.739181071163</v>
+        <v>110.79499316154001</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A298" s="6" t="s">
-        <v>20</v>
+      <c r="A298" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B298" s="2">
-        <v>-7.3769364274102696</v>
+        <v>-7.5693719660079903</v>
       </c>
       <c r="C298" s="2">
-        <v>112.758907931186</v>
+        <v>110.79419938020401</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A299" s="6" t="s">
-        <v>20</v>
+      <c r="A299" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B299" s="2">
-        <v>-7.3719156890953403</v>
+        <v>-7.5697528081467604</v>
       </c>
       <c r="C299" s="2">
-        <v>112.755409524903</v>
+        <v>110.79521617575099</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" s="6" t="s">
-        <v>20</v>
+      <c r="A300" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B300" s="2">
-        <v>-7.3461894487855703</v>
+        <v>-7.5651875621504301</v>
       </c>
       <c r="C300" s="2">
-        <v>112.736677438743</v>
+        <v>110.798870689624</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="6" t="s">
+      <c r="A301" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B301" s="2">
+        <v>-7.5613200567723897</v>
+      </c>
+      <c r="C301" s="2">
+        <v>110.81685243161</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B302" s="2">
+        <v>-7.5635192056373599</v>
+      </c>
+      <c r="C302" s="2">
+        <v>110.8207254</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B303" s="2">
+        <v>-7.5620748452596196</v>
+      </c>
+      <c r="C303" s="2">
+        <v>110.84515312845799</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B304" s="2">
+        <v>-7.5506644590402896</v>
+      </c>
+      <c r="C304" s="2">
+        <v>110.85383236304</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B305" s="2">
+        <v>-7.54842280768748</v>
+      </c>
+      <c r="C305" s="2">
+        <v>110.85835770716299</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B306" s="2">
+        <v>-7.5552635728882303</v>
+      </c>
+      <c r="C306" s="2">
+        <v>110.82088661498101</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B307" s="2">
+        <v>-7.5471677525258203</v>
+      </c>
+      <c r="C307" s="2">
+        <v>110.824269870552</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B308" s="2">
         <v>-7.5416428858305702</v>
       </c>
-      <c r="C301" s="2">
+      <c r="C308" s="2">
         <v>110.81949914090499</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B302" s="2">
-        <v>-7.5513991006079602</v>
-      </c>
-      <c r="C302" s="2">
-        <v>110.81434904186101</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B303" s="2">
-        <v>-7.5587806647799898</v>
-      </c>
-      <c r="C303" s="2">
-        <v>110.79499316154001</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A304" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B304" s="2">
-        <v>-7.5693719660079903</v>
-      </c>
-      <c r="C304" s="2">
-        <v>110.79419938020401</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B305" s="2">
-        <v>-7.5697528081467604</v>
-      </c>
-      <c r="C305" s="2">
-        <v>110.79521617575099</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B306" s="2">
-        <v>-7.5651875621504301</v>
-      </c>
-      <c r="C306" s="2">
-        <v>110.798870689624</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B307" s="2">
-        <v>-7.5613200567723897</v>
-      </c>
-      <c r="C307" s="2">
-        <v>110.81685243161</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A308" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B308" s="2">
-        <v>-7.5635192056373599</v>
-      </c>
-      <c r="C308" s="2">
-        <v>110.8207254</v>
-      </c>
-    </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" s="6" t="s">
-        <v>21</v>
+      <c r="A309" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B309" s="2">
-        <v>-7.5620748452596196</v>
+        <v>-6.5931430381391198</v>
       </c>
       <c r="C309" s="2">
-        <v>110.84515312845799</v>
+        <v>106.770557795277</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310" s="6" t="s">
-        <v>21</v>
+      <c r="A310" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B310" s="2">
-        <v>-7.5506644590402896</v>
+        <v>-6.6013768525337904</v>
       </c>
       <c r="C310" s="2">
-        <v>110.85383236304</v>
+        <v>106.81014734752399</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A311" s="6" t="s">
-        <v>21</v>
+      <c r="A311" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B311" s="2">
-        <v>-7.54842280768748</v>
+        <v>-6.6239509574778097</v>
       </c>
       <c r="C311" s="2">
-        <v>110.85835770716299</v>
+        <v>106.819285889841</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A312" s="6" t="s">
-        <v>21</v>
+      <c r="A312" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B312" s="2">
-        <v>-7.5552635728882303</v>
+        <v>-6.6016334025391501</v>
       </c>
       <c r="C312" s="2">
-        <v>110.82088661498101</v>
+        <v>106.827420680508</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="6" t="s">
-        <v>21</v>
+      <c r="A313" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B313" s="2">
-        <v>-7.5471677525258203</v>
+        <v>-6.6011951588280597</v>
       </c>
       <c r="C313" s="2">
-        <v>110.824269870552</v>
+        <v>106.81632153206201</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A314" s="6" t="s">
-        <v>21</v>
+      <c r="A314" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B314" s="2">
-        <v>-7.5416428858305702</v>
+        <v>-6.5984891107696102</v>
       </c>
       <c r="C314" s="2">
-        <v>110.81949914090499</v>
+        <v>106.810110359394</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" s="6" t="s">
+      <c r="A315" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B315" s="2">
+        <v>-6.5980736315115296</v>
+      </c>
+      <c r="C315" s="2">
+        <v>106.810078600835</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B316" s="2">
         <v>-6.5931430381391198</v>
       </c>
-      <c r="C315" s="2">
+      <c r="C316" s="2">
         <v>106.770557795277</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B316" s="2">
-        <v>-6.6013768525337904</v>
-      </c>
-      <c r="C316" s="2">
-        <v>106.81014734752399</v>
-      </c>
-    </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A317" s="6" t="s">
-        <v>22</v>
+      <c r="A317" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B317" s="2">
-        <v>-6.6239509574778097</v>
+        <v>-8.6392842248602797</v>
       </c>
       <c r="C317" s="2">
-        <v>106.819285889841</v>
+        <v>115.24763771779099</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="6" t="s">
-        <v>22</v>
+      <c r="A318" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B318" s="2">
-        <v>-6.6016334025391501</v>
+        <v>-8.6745005915744695</v>
       </c>
       <c r="C318" s="2">
-        <v>106.827420680508</v>
+        <v>115.229975159245</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" s="6" t="s">
-        <v>22</v>
+      <c r="A319" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B319" s="2">
-        <v>-6.6011951588280597</v>
+        <v>-8.6843351114284104</v>
       </c>
       <c r="C319" s="2">
-        <v>106.81632153206201</v>
+        <v>115.24175371143301</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A320" s="6" t="s">
-        <v>22</v>
+      <c r="A320" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B320" s="2">
-        <v>-6.5984891107696102</v>
+        <v>-8.6914627372092195</v>
       </c>
       <c r="C320" s="2">
-        <v>106.810110359394</v>
+        <v>115.255292948922</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" s="6" t="s">
-        <v>22</v>
+      <c r="A321" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B321" s="2">
-        <v>-6.5980736315115296</v>
+        <v>-8.6601526332436496</v>
       </c>
       <c r="C321" s="2">
-        <v>106.810078600835</v>
+        <v>115.260529654439</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A322" s="6" t="s">
-        <v>22</v>
+      <c r="A322" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B322" s="2">
-        <v>-6.5931430381391198</v>
+        <v>-6.3249086032318003</v>
       </c>
       <c r="C322" s="2">
-        <v>106.770557795277</v>
+        <v>107.143569545912</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A323" s="6" t="s">
-        <v>23</v>
+      <c r="A323" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B323" s="2">
-        <v>-8.6392842248602797</v>
+        <v>-6.3341160022702701</v>
       </c>
       <c r="C323" s="2">
-        <v>115.24763771779099</v>
+        <v>107.14219063164001</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A324" s="6" t="s">
-        <v>23</v>
+      <c r="A324" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B324" s="2">
-        <v>-8.6745005915744695</v>
+        <v>-6.3369787824360797</v>
       </c>
       <c r="C324" s="2">
-        <v>115.229975159245</v>
+        <v>107.141779504939</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" s="6" t="s">
-        <v>23</v>
+      <c r="A325" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B325" s="2">
-        <v>-8.6843351114284104</v>
+        <v>-6.3350746709045103</v>
       </c>
       <c r="C325" s="2">
-        <v>115.24175371143301</v>
+        <v>107.143573451712</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" s="6" t="s">
-        <v>23</v>
+      <c r="A326" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B326" s="2">
-        <v>-8.6914627372092195</v>
+        <v>-6.3051361295150397</v>
       </c>
       <c r="C326" s="2">
-        <v>115.255292948922</v>
+        <v>107.169990907472</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A327" s="6" t="s">
-        <v>23</v>
+      <c r="A327" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B327" s="2">
-        <v>-8.6601526332436496</v>
+        <v>-6.2988019993839002</v>
       </c>
       <c r="C327" s="2">
-        <v>115.260529654439</v>
+        <v>107.166387168692</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="6" t="s">
+      <c r="A328" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B328" s="2">
@@ -4143,464 +4142,398 @@
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="6" t="s">
-        <v>24</v>
+      <c r="A329" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B329" s="2">
-        <v>-6.3341160022702701</v>
+        <v>-7.7716284804374496</v>
       </c>
       <c r="C329" s="2">
-        <v>107.14219063164001</v>
+        <v>110.36329513907501</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" s="6" t="s">
-        <v>24</v>
+      <c r="A330" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B330" s="2">
-        <v>-6.3369787824360797</v>
+        <v>-7.7877045839106502</v>
       </c>
       <c r="C330" s="2">
-        <v>107.141779504939</v>
+        <v>110.357425441104</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" s="6" t="s">
-        <v>24</v>
+      <c r="A331" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B331" s="2">
-        <v>-6.3350746709045103</v>
+        <v>-7.8239531229652899</v>
       </c>
       <c r="C331" s="2">
-        <v>107.143573451712</v>
+        <v>110.371774461306</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" s="6" t="s">
-        <v>24</v>
+      <c r="A332" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B332" s="2">
-        <v>-6.3051361295150397</v>
+        <v>-7.8230264502827396</v>
       </c>
       <c r="C332" s="2">
-        <v>107.169990907472</v>
+        <v>110.391421076681</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A333" s="6" t="s">
-        <v>24</v>
+      <c r="A333" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B333" s="2">
-        <v>-6.2988019993839002</v>
+        <v>-7.8201094743603603</v>
       </c>
       <c r="C333" s="2">
-        <v>107.166387168692</v>
+        <v>110.39235173313401</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="6" t="s">
-        <v>24</v>
+      <c r="A334" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B334" s="2">
-        <v>-6.3249086032318003</v>
+        <v>-7.8195849054961597</v>
       </c>
       <c r="C334" s="2">
-        <v>107.143569545912</v>
+        <v>110.39231027076499</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" s="6" t="s">
+      <c r="A335" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B335" s="2">
+        <v>-7.7967147069337503</v>
+      </c>
+      <c r="C335" s="2">
+        <v>110.374377584031</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B336" s="2">
         <v>-7.7716284804374496</v>
       </c>
-      <c r="C335" s="2">
+      <c r="C336" s="2">
         <v>110.36329513907501</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B336" s="2">
-        <v>-7.7877045839106502</v>
-      </c>
-      <c r="C336" s="2">
-        <v>110.357425441104</v>
-      </c>
-    </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337" s="6" t="s">
-        <v>25</v>
+      <c r="A337" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B337" s="2">
-        <v>-7.8239531229652899</v>
+        <v>-6.8997047284363697</v>
       </c>
       <c r="C337" s="2">
-        <v>110.371774461306</v>
+        <v>107.765500271164</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A338" s="6" t="s">
-        <v>25</v>
+      <c r="A338" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B338" s="2">
-        <v>-7.8230264502827396</v>
+        <v>-6.9383237913011904</v>
       </c>
       <c r="C338" s="2">
-        <v>110.391421076681</v>
+        <v>107.76920095958801</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339" s="6" t="s">
-        <v>25</v>
+      <c r="A339" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B339" s="2">
-        <v>-7.8201094743603603</v>
+        <v>-6.9353377219860999</v>
       </c>
       <c r="C339" s="2">
-        <v>110.39235173313401</v>
+        <v>107.77785373629099</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A340" s="6" t="s">
-        <v>25</v>
+      <c r="A340" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B340" s="2">
-        <v>-7.8195849054961597</v>
+        <v>-6.9348941682678902</v>
       </c>
       <c r="C340" s="2">
-        <v>110.39231027076499</v>
+        <v>107.782221078883</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A341" s="6" t="s">
-        <v>25</v>
+      <c r="A341" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B341" s="2">
-        <v>-7.7967147069337503</v>
+        <v>-6.9325406353060703</v>
       </c>
       <c r="C341" s="2">
-        <v>110.374377584031</v>
+        <v>107.781340976436</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A342" s="6" t="s">
-        <v>25</v>
+      <c r="A342" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B342" s="2">
-        <v>-7.7716284804374496</v>
+        <v>-6.9257817463783802</v>
       </c>
       <c r="C342" s="2">
-        <v>110.36329513907501</v>
+        <v>107.780071789155</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" s="6" t="s">
+      <c r="A343" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B343" s="2">
-        <v>-6.8997047284363697</v>
+        <v>-6.9235901542888403</v>
       </c>
       <c r="C343" s="2">
-        <v>107.765500271164</v>
+        <v>107.780586553235</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" s="6" t="s">
+      <c r="A344" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B344" s="2">
-        <v>-6.9383237913011904</v>
+        <v>-6.9135835733425202</v>
       </c>
       <c r="C344" s="2">
-        <v>107.76920095958801</v>
+        <v>107.780025105391</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A345" s="6" t="s">
-        <v>26</v>
+      <c r="A345" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B345" s="2">
-        <v>-6.9353377219860999</v>
+        <v>-8.6466412628220102</v>
       </c>
       <c r="C345" s="2">
-        <v>107.77785373629099</v>
+        <v>115.164291527375</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A346" s="6" t="s">
-        <v>26</v>
+      <c r="A346" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B346" s="2">
-        <v>-6.9348941682678902</v>
+        <v>-8.6838996306096696</v>
       </c>
       <c r="C346" s="2">
-        <v>107.782221078883</v>
+        <v>115.174930882873</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A347" s="6" t="s">
-        <v>26</v>
+      <c r="A347" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B347" s="2">
-        <v>-6.9325406353060703</v>
+        <v>-8.7849358658506098</v>
       </c>
       <c r="C347" s="2">
-        <v>107.781340976436</v>
+        <v>115.176352853067</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A348" s="6" t="s">
-        <v>26</v>
+      <c r="A348" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B348" s="2">
-        <v>-6.9257817463783802</v>
+        <v>-8.8041497662756107</v>
       </c>
       <c r="C348" s="2">
-        <v>107.780071789155</v>
+        <v>115.165747671105</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A349" s="6" t="s">
-        <v>26</v>
+      <c r="A349" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B349" s="2">
-        <v>-6.9235901542888403</v>
+        <v>-8.6866375434270306</v>
       </c>
       <c r="C349" s="2">
-        <v>107.780586553235</v>
+        <v>115.17104946225101</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A350" s="6" t="s">
-        <v>26</v>
+      <c r="A350" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B350" s="2">
-        <v>-6.9135835733425202</v>
+        <v>-8.6466412628220102</v>
       </c>
       <c r="C350" s="2">
-        <v>107.780025105391</v>
+        <v>115.164291527375</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A351" s="6" t="s">
-        <v>27</v>
+      <c r="A351" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B351" s="2">
-        <v>-8.6466412628220102</v>
+        <v>-7.9128353716644702</v>
       </c>
       <c r="C351" s="2">
-        <v>115.164291527375</v>
+        <v>112.596831117791</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A352" s="6" t="s">
-        <v>27</v>
+      <c r="A352" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B352" s="2">
-        <v>-8.6838996306096696</v>
+        <v>-7.9223485210384901</v>
       </c>
       <c r="C352" s="2">
-        <v>115.174930882873</v>
+        <v>112.608665661646</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A353" s="6" t="s">
-        <v>27</v>
+      <c r="A353" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B353" s="2">
-        <v>-8.7849358658506098</v>
+        <v>-7.9165148300621704</v>
       </c>
       <c r="C353" s="2">
-        <v>115.176352853067</v>
+        <v>112.596358033795</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354" s="6" t="s">
-        <v>27</v>
+      <c r="A354" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B354" s="2">
-        <v>-8.8041497662756107</v>
+        <v>-7.9150186139533396</v>
       </c>
       <c r="C354" s="2">
-        <v>115.165747671105</v>
+        <v>112.59122078420199</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A355" s="6" t="s">
-        <v>27</v>
+      <c r="A355" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B355" s="2">
-        <v>-8.6866375434270306</v>
+        <v>-7.9128353716644702</v>
       </c>
       <c r="C355" s="2">
-        <v>115.17104946225101</v>
+        <v>112.596831117791</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A356" s="6" t="s">
-        <v>27</v>
+      <c r="A356" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B356" s="2">
-        <v>-8.6466412628220102</v>
+        <v>-7.5527338916915001</v>
       </c>
       <c r="C356" s="2">
-        <v>115.164291527375</v>
+        <v>110.76455803678201</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A357" s="6" t="s">
-        <v>28</v>
+      <c r="A357" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B357" s="2">
-        <v>-7.9128353716644702</v>
+        <v>-7.5798163985690001</v>
       </c>
       <c r="C357" s="2">
-        <v>112.596831117791</v>
+        <v>110.777853335903</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A358" s="6" t="s">
-        <v>28</v>
+      <c r="A358" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B358" s="2">
-        <v>-7.9223485210384901</v>
+        <v>-7.6038219440550696</v>
       </c>
       <c r="C358" s="2">
-        <v>112.608665661646</v>
+        <v>110.806758959196</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A359" s="6" t="s">
-        <v>28</v>
+      <c r="A359" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B359" s="2">
-        <v>-7.9165148300621704</v>
+        <v>-7.5961867052777698</v>
       </c>
       <c r="C359" s="2">
-        <v>112.596358033795</v>
+        <v>110.822306245871</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A360" s="6" t="s">
-        <v>28</v>
+      <c r="A360" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B360" s="2">
-        <v>-7.9150186139533396</v>
+        <v>-7.5527338916915001</v>
       </c>
       <c r="C360" s="2">
-        <v>112.59122078420199</v>
+        <v>110.76455803678201</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A361" s="6" t="s">
-        <v>28</v>
+      <c r="A361" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B361" s="2">
-        <v>-7.9128353716644702</v>
+        <v>-6.1136654403364199</v>
       </c>
       <c r="C361" s="2">
-        <v>112.596831117791</v>
+        <v>106.13523797443401</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="6" t="s">
-        <v>29</v>
+      <c r="A362" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B362" s="2">
-        <v>-7.5527338916915001</v>
+        <v>-6.1184716140322504</v>
       </c>
       <c r="C362" s="2">
-        <v>110.76455803678201</v>
+        <v>106.177583247139</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A363" s="6" t="s">
-        <v>29</v>
+      <c r="A363" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B363" s="2">
-        <v>-7.5798163985690001</v>
+        <v>-6.1891089030995703</v>
       </c>
       <c r="C363" s="2">
-        <v>110.777853335903</v>
+        <v>106.12017820537601</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A364" s="6" t="s">
-        <v>29</v>
+      <c r="A364" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B364" s="2">
-        <v>-7.6038219440550696</v>
+        <v>-6.1136654403364199</v>
       </c>
       <c r="C364" s="2">
-        <v>110.806758959196</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A365" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B365" s="2">
-        <v>-7.5961867052777698</v>
-      </c>
-      <c r="C365" s="2">
-        <v>110.822306245871</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B366" s="2">
-        <v>-7.5527338916915001</v>
-      </c>
-      <c r="C366" s="2">
-        <v>110.76455803678201</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A367" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B367" s="2">
-        <v>-6.1136654403364199</v>
-      </c>
-      <c r="C367" s="2">
-        <v>106.13523797443401</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A368" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B368" s="2">
-        <v>-6.1184716140322504</v>
-      </c>
-      <c r="C368" s="2">
-        <v>106.177583247139</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A369" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B369" s="2">
-        <v>-6.1891089030995703</v>
-      </c>
-      <c r="C369" s="2">
-        <v>106.12017820537601</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A370" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B370" s="2">
-        <v>-6.1136654403364199</v>
-      </c>
-      <c r="C370" s="2">
         <v>106.13523797443401</v>
       </c>
     </row>
